--- a/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00DB5BB-41A2-4CD5-BEE2-64AE595FAC16}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4565B1-EA3D-4B1F-B3EA-760A0C70DEBB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>SEH Taxonomy</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>http://open.undp.org/projects/00120928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             792 240 </t>
   </si>
   <si>
     <t>Policy or Regulatory Framework</t>
@@ -197,8 +197,7 @@
     <t>NDC updated and submitted to UNFCC</t>
   </si>
   <si>
-    <t xml:space="preserve">
-NDC updated and sumitted to UNFCC  in 2021
+    <t>NDC updated and sumitted to UNFCC  in 2021
 Tunisia has taken a strong position in its updated NDC (submitted in october 2021) in order to achieve the objectives established under the Paris Agreement, With a mitigation objective of reducing the carbon intensity of the Tunisian economy by 45% by 2030, compared to 2010.</t>
   </si>
   <si>
@@ -270,6 +269,9 @@
   </si>
   <si>
     <t>UNDP|04000|TRAC (Lines 1.1.1 and 1.1.2)|00012|UNITED NATIONS DEVELOPMENT PRO             UNDP|62000|GEF Voluntary Contribution |10003|Global Environment Fund Truste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             792 240 </t>
   </si>
   <si>
     <t>Other</t>
@@ -801,7 +803,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,104 +900,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,6 +923,141 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1324,9 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379DE46-BADE-44E9-8BEB-948B99B95836}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1335,644 +1375,675 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="56.7109375" customWidth="1"/>
+    <col min="9" max="9" width="66.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="P1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="Q1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="R1" s="58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="56.25" customHeight="1">
-      <c r="A2" s="68">
+      <c r="S1" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="173.25" customHeight="1">
+      <c r="A2" s="60">
         <v>116913</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="62">
+        <v>792240</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="O2" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="67.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="51" t="s">
+    <row r="3" spans="1:19" ht="235.5" customHeight="1">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="50"/>
-      <c r="O3" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="73" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60.75" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="51" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65">
         <v>30</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="66">
+      <c r="I4" s="65"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74">
         <v>0.5</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="50"/>
-      <c r="O4" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="51" t="s">
+    <row r="5" spans="1:19" ht="45.75">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="67" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="50"/>
-      <c r="O5" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="64.5" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="56" t="s">
+    <row r="6" spans="1:19" ht="105.75" customHeight="1">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="53">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65">
         <v>50</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="66">
+      <c r="J6" s="73"/>
+      <c r="K6" s="74">
         <v>0.5</v>
       </c>
-      <c r="L6" s="69"/>
-      <c r="M6" s="50"/>
-      <c r="O6" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30.75">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="56" t="s">
+    <row r="7" spans="1:19" ht="60.75">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="67" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="50"/>
-      <c r="O7" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60.75">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="56" t="s">
+    <row r="8" spans="1:19" ht="76.5">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="67" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="50"/>
-      <c r="O8" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30.75">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="56" t="s">
+    <row r="9" spans="1:19" ht="45.75">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="67" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="50"/>
-      <c r="O9" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A10" s="71">
+    <row r="10" spans="1:19" ht="105.75" customHeight="1">
+      <c r="A10" s="79">
         <v>118895</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="82">
         <v>1080000</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="68" t="s">
+      <c r="K10" s="87"/>
+      <c r="L10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="O10" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="81">
-      <c r="A11" s="72"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="57" t="s">
+    <row r="11" spans="1:19" ht="82.5" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60" t="s">
+      <c r="G11" s="84"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="50"/>
-      <c r="O11" t="s">
+      <c r="J11" s="90"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="72"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="57" t="s">
+    <row r="12" spans="1:19" ht="30.75">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="50"/>
-      <c r="O12" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="57" t="s">
+    <row r="13" spans="1:19" ht="33.75" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="50"/>
-      <c r="O13" t="s">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="67.5" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="57" t="s">
+    <row r="14" spans="1:19" ht="156" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="61" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="50"/>
-      <c r="O14" t="s">
+      <c r="J14" s="90"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="57" t="s">
+    <row r="15" spans="1:19" ht="106.5" customHeight="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="84">
         <v>50</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="50"/>
-      <c r="O15" t="s">
+      <c r="J15" s="90"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="57" t="s">
+    <row r="16" spans="1:19" ht="54" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="84"/>
+      <c r="I16" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="50"/>
-      <c r="O16" t="s">
+      <c r="J16" s="98"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="87" customHeight="1">
-      <c r="A17" s="50">
+    <row r="17" spans="1:19" ht="87" customHeight="1">
+      <c r="A17" s="69">
         <v>6686</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="69">
         <v>846906</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K17" s="73"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="F19" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="L10:L16"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O17" xr:uid="{29BBC813-C113-4F01-9C53-F68756694848}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -2069,16 +2140,16 @@
         <v>116913</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>22</v>
@@ -2087,10 +2158,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>25</v>
@@ -2098,8 +2169,8 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="3"/>
-      <c r="E3" s="86" t="s">
-        <v>67</v>
+      <c r="E3" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="13"/>
@@ -2108,7 +2179,7 @@
     </row>
     <row r="4" spans="1:10" ht="244.5">
       <c r="C4" s="3"/>
-      <c r="E4" s="88"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="25" t="s">
         <v>31</v>
       </c>
@@ -2116,10 +2187,10 @@
         <v>32</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="106.5">
@@ -2131,23 +2202,23 @@
         <v>35</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="30.75">
       <c r="C6" s="3"/>
-      <c r="E6" s="86" t="s">
-        <v>67</v>
+      <c r="E6" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>37</v>
@@ -2156,7 +2227,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="3"/>
-      <c r="E7" s="87"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2171,10 +2242,10 @@
         <v>38</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>39</v>
@@ -2183,14 +2254,14 @@
     <row r="9" spans="1:10" ht="45.75">
       <c r="C9" s="3"/>
       <c r="E9" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="39"/>
     </row>
@@ -2202,7 +2273,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="38"/>
     </row>
@@ -2213,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>45</v>
@@ -2296,13 +2367,13 @@
         <v>48</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="46" t="s">
         <v>50</v>
@@ -2316,10 +2387,10 @@
         <v>51</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>52</v>
@@ -2327,28 +2398,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="E21" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="23.25" customHeight="1">
       <c r="E22" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="30"/>
@@ -2361,10 +2432,10 @@
         <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" s="37" t="s">
         <v>56</v>
@@ -2381,7 +2452,7 @@
         <v>58</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>59</v>
@@ -2389,7 +2460,7 @@
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1">
       <c r="E25" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>60</v>
@@ -2435,10 +2506,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="F29" s="42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2480,160 +2551,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="89" t="s">
-        <v>91</v>
+      <c r="A2" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="90" t="s">
-        <v>98</v>
+      <c r="A5" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="90"/>
+      <c r="A6" s="53"/>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="90"/>
+      <c r="A7" s="53"/>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="90"/>
+      <c r="A8" s="53"/>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="90"/>
+      <c r="A9" s="53"/>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="91" t="s">
-        <v>109</v>
+      <c r="A10" s="54" t="s">
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="91"/>
+      <c r="A11" s="54"/>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="92" t="s">
-        <v>114</v>
+      <c r="A12" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="55"/>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2648,26 +2719,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Yousri Helal</DisplayName>
-        <AccountId>1695</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2691,6 +2753,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2766,6 +2829,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2909,22 +2977,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Yousri Helal</DisplayName>
+        <AccountId>1695</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679E913D-3A01-4976-8AEE-3E891110FFC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282FADD1-8396-4BB9-9B1A-0068324544B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB16BAA5-B6D3-47E2-8D6F-F1E38C150513}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D633C35A-9888-4A6D-B4C8-59DCCA7EDEF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282FADD1-8396-4BB9-9B1A-0068324544B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679E913D-3A01-4976-8AEE-3E891110FFC5}"/>
 </file>
--- a/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="450" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4565B1-EA3D-4B1F-B3EA-760A0C70DEBB}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B153D917-9623-4E56-83DA-421B8FFA0288}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -522,7 +525,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +592,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -803,7 +812,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,9 +909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,139 +930,128 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,7 +1361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379DE46-BADE-44E9-8BEB-948B99B95836}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:S17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1387,658 +1384,658 @@
     <col min="19" max="19" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="30.75">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="173.25" customHeight="1">
-      <c r="A2" s="60">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="173.25" customHeight="1">
+      <c r="A2" s="61">
         <v>116913</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="63">
         <v>792240</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="62" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="235.5" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="63" t="s">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="235.5" customHeight="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="73" t="s">
+      <c r="P3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="73" t="s">
+      <c r="S3" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="60.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="63" t="s">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66">
         <v>30</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="73"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="74">
         <v>0.5</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="45.75">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="63" t="s">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="45.75">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73" t="s">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="105.75" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="76" t="s">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66">
         <v>50</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="73"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="74">
         <v>0.5</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73" t="s">
+      <c r="L6" s="73"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73" t="s">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="76" t="s">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="60.75">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73" t="s">
+      <c r="J7" s="66"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="73" t="s">
+      <c r="P7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="73" t="s">
+      <c r="S7" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="76.5">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="76" t="s">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="76.5">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73" t="s">
+      <c r="J8" s="66"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="73" t="s">
+      <c r="P8" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73" t="s">
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="S8" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45.75">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="76" t="s">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="45.75">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="73" t="s">
+      <c r="P9" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73" t="s">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="105.75" customHeight="1">
-      <c r="A10" s="79">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A10" s="78">
         <v>118895</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="81">
         <v>1080000</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="62" t="s">
+      <c r="K10" s="84"/>
+      <c r="L10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73" t="s">
+      <c r="M10" s="69"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="73" t="s">
+      <c r="P10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73" t="s">
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="82.5" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83" t="s">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73" t="s">
+      <c r="J11" s="86"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73" t="s">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="73" t="s">
+      <c r="S11" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30.75">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83" t="s">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="30.75">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="73" t="s">
+      <c r="P12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73" t="s">
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="73" t="s">
+      <c r="S12" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83" t="s">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="73" t="s">
+      <c r="P13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73" t="s">
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S13" s="73" t="s">
+      <c r="S13" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="156" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83" t="s">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="156" customHeight="1">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="91" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73" t="s">
+      <c r="J14" s="86"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="73" t="s">
+      <c r="P14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73" t="s">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="73" t="s">
+      <c r="S14" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="106.5" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83" t="s">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="66">
         <v>50</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73" t="s">
+      <c r="J15" s="86"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="73" t="s">
+      <c r="P15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73" t="s">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="73" t="s">
+      <c r="S15" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="54" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="83" t="s">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="54" customHeight="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="97" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73" t="s">
+      <c r="J16" s="93"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="73" t="s">
+      <c r="P16" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73" t="s">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="73" t="s">
+      <c r="S16" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="87" customHeight="1">
-      <c r="A17" s="69">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="87" customHeight="1">
+      <c r="A17" s="94">
         <v>6686</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="94">
         <v>846906</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
     </row>
     <row r="19" spans="1:19">
       <c r="F19" s="42"/>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="3"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="26"/>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="4" spans="1:10" ht="244.5">
       <c r="C4" s="3"/>
-      <c r="E4" s="51"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="25" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="6" spans="1:10" ht="30.75">
       <c r="C6" s="3"/>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -2227,7 +2224,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="3"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2561,7 +2558,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B2" t="s">
@@ -2572,7 +2569,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="51"/>
       <c r="B3" t="s">
         <v>95</v>
       </c>
@@ -2581,7 +2578,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -2590,7 +2587,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B5" t="s">
@@ -2601,7 +2598,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -2610,7 +2607,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>104</v>
       </c>
@@ -2619,7 +2616,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>106</v>
       </c>
@@ -2628,7 +2625,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -2637,7 +2634,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>110</v>
       </c>
       <c r="B10" t="s">
@@ -2648,7 +2645,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" t="s">
         <v>113</v>
       </c>
@@ -2657,7 +2654,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
@@ -2668,7 +2665,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
         <v>117</v>
       </c>
@@ -2677,7 +2674,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
         <v>119</v>
       </c>
@@ -2728,6 +2725,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Yousri Helal</DisplayName>
+        <AccountId>1695</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2976,32 +2991,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Yousri Helal</DisplayName>
-        <AccountId>1695</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282FADD1-8396-4BB9-9B1A-0068324544B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D633C35A-9888-4A6D-B4C8-59DCCA7EDEF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679E913D-3A01-4976-8AEE-3E891110FFC5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679E913D-3A01-4976-8AEE-3E891110FFC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D633C35A-9888-4A6D-B4C8-59DCCA7EDEF6}"/>
 </file>
--- a/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tunisia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="452" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B153D917-9623-4E56-83DA-421B8FFA0288}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="11_5024AB3DAB0C0C8EB9F9E34C06FBAA44E44B299C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FA4D63-0862-4306-801B-4DF5D433FAEC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="136">
   <si>
     <t>Project ID</t>
   </si>
@@ -68,13 +68,10 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -92,13 +89,19 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>implement &amp; update NDC in energy&amp;indust-process sectors</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00120928</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>Number of studies on energy, socio-economic and environmental (GHG) impact assessment</t>
@@ -126,13 +129,19 @@
     <t>Accelerating just energy transition</t>
   </si>
   <si>
-    <t>Energy Efficiency</t>
+    <t>Renewable Energy</t>
   </si>
   <si>
     <t>NDC Support</t>
   </si>
   <si>
     <t>Decarbonization</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Number of mitigation investment assessments in the energy and industrial processes sectors 
@@ -150,7 +159,7 @@
  Investment plans by sub-sector are proposed</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of capacity building programs to support and facilitate the implementation of mitigation investment plans
@@ -230,12 +239,6 @@
     </r>
   </si>
   <si>
-    <t>Action plan for NDC implementation consolidated</t>
-  </si>
-  <si>
-    <t>National conference on decentralisation of climate action organised</t>
-  </si>
-  <si>
     <t>National strategy on fuel poverty developed</t>
   </si>
   <si>
@@ -262,6 +265,12 @@
     <t>A roadmap for a better involvement of the private sector in the implementation of the NDC is developed</t>
   </si>
   <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Grant &amp; Investment</t>
+  </si>
+  <si>
     <t>Towards Sustainable cities in Tunisia</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
   </si>
   <si>
     <t>UNDP|04000|TRAC (Lines 1.1.1 and 1.1.2)|00012|UNITED NATIONS DEVELOPMENT PRO             UNDP|62000|GEF Voluntary Contribution |10003|Global Environment Fund Truste</t>
+  </si>
+  <si>
+    <t>VF</t>
   </si>
   <si>
     <t xml:space="preserve">             792 240 </t>
@@ -297,6 +309,9 @@
 </t>
   </si>
   <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
     <t>absence</t>
   </si>
   <si>
@@ -333,9 +348,15 @@
     <t xml:space="preserve">A national action plan for NDC implementation is developed </t>
   </si>
   <si>
+    <t>Action plan for NDC implementation consolidated</t>
+  </si>
+  <si>
     <t>A mitigation action plan for NDC implementation is consolidated</t>
   </si>
   <si>
+    <t>National conference on decentralisation of climate action organised</t>
+  </si>
+  <si>
     <t>Abence</t>
   </si>
   <si>
@@ -351,58 +372,70 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -411,7 +444,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -426,10 +462,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -438,16 +471,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -457,12 +493,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,8 +566,21 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,42 +590,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,37 +826,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -857,34 +870,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,22 +906,164 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,141 +1073,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1359,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379DE46-BADE-44E9-8BEB-948B99B95836}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:S17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,690 +1405,964 @@
     <col min="9" max="9" width="66.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="30.75">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:31" ht="30.75">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="173.25" customHeight="1">
-      <c r="A2" s="61">
+      <c r="T1" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="173.25" customHeight="1">
+      <c r="A2" s="48">
         <v>116913</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="50">
+        <v>792240</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="63">
-        <v>792240</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="63" t="s">
+      <c r="J2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70" t="s">
+      <c r="O2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="235.5" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="65" t="s">
+      <c r="R2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66" t="s">
+      <c r="U2" s="93"/>
+      <c r="W2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="235.5" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66" t="s">
+      <c r="O3" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="66" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66">
+      <c r="R3" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="93"/>
+      <c r="T3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="93"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="74">
+      <c r="AE3" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="60.75" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53">
+        <v>30</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="61">
         <v>0.5</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66" t="s">
+      <c r="L4" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="M4" s="84"/>
+      <c r="N4" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66" t="s">
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="93"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="45.75">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="75" t="s">
+      <c r="AE4" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="60.75">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="84"/>
+      <c r="N5" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="93"/>
+      <c r="T5" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="93"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="105.75" customHeight="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66" t="s">
+      <c r="F6" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53">
+        <v>50</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66" t="s">
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="93"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66">
+      <c r="AE6" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="60.75">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="84"/>
+      <c r="N7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="93"/>
+      <c r="T7" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="93"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="76.5">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="84"/>
+      <c r="N8" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="93"/>
+      <c r="T8" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="93"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="60.75">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="84"/>
+      <c r="N9" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="93"/>
+      <c r="T9" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="93"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="105.75" customHeight="1">
+      <c r="A10" s="65">
+        <v>118895</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66" t="s">
+      <c r="D10" s="68">
+        <v>1080000</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="M10" s="84"/>
+      <c r="N10" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66" t="s">
+      <c r="O10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="66" t="s">
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="60.75">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66" t="s">
+      <c r="R10" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="93"/>
+      <c r="T10" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="93"/>
+      <c r="W10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="X10" s="56"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66" t="s">
+      <c r="AA10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="66" t="s">
+      <c r="AB10" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="76.5">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66" t="s">
+      <c r="AE10" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="82.5" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="M11" s="84"/>
+      <c r="N11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66" t="s">
+      <c r="O11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="45.75">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66" t="s">
+      <c r="R11" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="93"/>
+      <c r="T11" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="93"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="156" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="M12" s="84"/>
+      <c r="N12" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66" t="s">
+      <c r="O12" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="66" t="s">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A10" s="78">
-        <v>118895</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="81">
-        <v>1080000</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="83" t="s">
+      <c r="R12" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="93"/>
+      <c r="T12" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="93"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="106.5" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="53">
         <v>50</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66" t="s">
+      <c r="I13" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="M13" s="84"/>
+      <c r="N13" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66" t="s">
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="93"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="66" t="s">
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="86"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66" t="s">
+      <c r="AE13" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="54" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="80"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="M14" s="84"/>
+      <c r="N14" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66" t="s">
+      <c r="O14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="66" t="s">
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="93"/>
+      <c r="T14" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="93"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="30.75">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="66" t="s">
+      <c r="AE14" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="87" customHeight="1">
+      <c r="A15" s="81">
+        <v>6686</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="81">
+        <v>846906</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="83"/>
+      <c r="L15" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66" t="s">
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="93"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="156" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="66">
-        <v>50</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="54" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="87" customHeight="1">
-      <c r="A17" s="94">
-        <v>6686</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="94">
-        <v>846906</v>
-      </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="F19" s="42"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="40"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O17" xr:uid="{29BBC813-C113-4F01-9C53-F68756694848}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z15 N2:N15" xr:uid="{29BBC813-C113-4F01-9C53-F68756694848}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P17" xr:uid="{92255395-62BC-4094-A55A-630502A5AA74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA15" xr:uid="{92255395-62BC-4094-A55A-630502A5AA74}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q17" xr:uid="{40E6AABB-AA85-45D2-954F-878D7E8E38DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC15 P2:P15" xr:uid="{40E6AABB-AA85-45D2-954F-878D7E8E38DE}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R17" xr:uid="{F1E7524F-766B-4CA7-A49F-2F6771BE9EDA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD15 Q2:Q15" xr:uid="{F1E7524F-766B-4CA7-A49F-2F6771BE9EDA}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S17" xr:uid="{71982639-B12A-4E0F-9687-2493ECBCAED9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE15" xr:uid="{71982639-B12A-4E0F-9687-2493ECBCAED9}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB15" xr:uid="{2B6893FD-094D-4081-B43D-7C04C2E1059C}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15" xr:uid="{E301C887-E92C-4A31-9C5B-B4380CFBAF82}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M15" xr:uid="{360705CD-721B-4D26-BE2A-7C10FAE328A8}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T15" xr:uid="{5D57D009-2C17-4645-835A-110ACE64BE50}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L15" xr:uid="{61B0970A-3B5C-4077-AFED-28BD55F9D500}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R15" xr:uid="{46170C82-7D4B-4BE4-A852-A701428E7162}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S15" xr:uid="{7E1C843E-9A36-454D-BE51-360CC67FB3FC}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{5FF6E49A-BEC9-4116-A46F-75EE1065B1C7}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{4AE56F30-C0B3-4944-800D-5BDFC0E7408D}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{4AE56F30-C0B3-4944-800D-5BDFC0E7408D}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{84208E3E-7BC4-42D5-8AB8-1CAC9942AF50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2069,9 +2371,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD04A6BE-9861-4ECE-A35A-864DDDA62A22}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>E2:E15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2113,22 +2415,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2137,156 +2439,156 @@
         <v>116913</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>25</v>
+      <c r="G2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="3"/>
-      <c r="E3" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="244.5">
       <c r="C4" s="3"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>72</v>
+      <c r="E4" s="96"/>
+      <c r="F4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="106.5">
       <c r="C5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="30.75">
       <c r="C6" s="3"/>
-      <c r="E6" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="14"/>
+      <c r="E6" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="3"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="106.5">
       <c r="C8" s="3"/>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>39</v>
+      <c r="E8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45.75">
       <c r="C9" s="3"/>
-      <c r="E9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="39"/>
+      <c r="E9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="60.75">
       <c r="C10" s="3"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18" t="s">
-        <v>42</v>
+      <c r="E10" s="19"/>
+      <c r="F10" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="38"/>
+      <c r="H10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="30.75">
       <c r="C11" s="3"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="16"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" s="3"/>
@@ -2345,168 +2647,168 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="91.5">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>118895</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5">
         <v>1080000</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>50</v>
+      <c r="E19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="81">
-      <c r="E20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="36" t="s">
+      <c r="E20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="E21" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="E21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="37"/>
+      <c r="H21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:10" ht="23.25" customHeight="1">
-      <c r="E22" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="30"/>
+      <c r="E22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="183">
-      <c r="E23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="37" t="s">
+      <c r="E23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="G23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="76.5">
-      <c r="E24" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="E24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="41" t="s">
+      <c r="G24" s="31" t="s">
         <v>59</v>
       </c>
+      <c r="H24" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1">
-      <c r="E25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="H25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="87" customHeight="1">
       <c r="A27">
         <v>6686</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D27">
         <v>846906</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>66</v>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="F29" s="42" t="s">
-        <v>88</v>
+      <c r="F29" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2525,9 +2827,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E27 E8:E25 E2:E3 E5:E6</xm:sqref>
+          <xm:sqref>E27 E5:E6 E2:E3 E8:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2537,212 +2839,199 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51"/>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="51"/>
-      <c r="B4" t="s">
+      <c r="B1" s="85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B2" s="86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="97" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52"/>
-      <c r="B6" t="s">
+      <c r="B4" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="97" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="52"/>
-      <c r="B7" t="s">
+      <c r="B5" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="97" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="52"/>
-      <c r="B8" t="s">
+      <c r="B6" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="97" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="52"/>
-      <c r="B9" t="s">
+      <c r="B7" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="97" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
+      <c r="B8" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B9" s="86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
-      <c r="B11" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B10" s="98" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="54" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B11" s="98" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="54"/>
-      <c r="B14" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B13" s="98" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B14" s="98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="97" t="s">
         <v>123</v>
       </c>
+      <c r="B15" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Yousri Helal</DisplayName>
-        <AccountId>1695</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2991,8 +3280,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Yousri Helal</DisplayName>
+        <AccountId>1695</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282FADD1-8396-4BB9-9B1A-0068324544B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D633C35A-9888-4A6D-B4C8-59DCCA7EDEF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3000,5 +3316,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D633C35A-9888-4A6D-B4C8-59DCCA7EDEF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282FADD1-8396-4BB9-9B1A-0068324544B0}"/>
 </file>